--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Galp-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Galp-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Galp</t>
+  </si>
+  <si>
+    <t>Galr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Galp</t>
-  </si>
-  <si>
-    <t>Galr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,19 +534,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.07324666666666667</v>
+        <v>0.1314505</v>
       </c>
       <c r="H2">
-        <v>0.21974</v>
+        <v>0.262901</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.2698953333333333</v>
+        <v>0.5954815</v>
       </c>
       <c r="N2">
-        <v>0.809686</v>
+        <v>1.190963</v>
       </c>
       <c r="O2">
-        <v>0.1217843147002015</v>
+        <v>0.1769072473669437</v>
       </c>
       <c r="P2">
-        <v>0.1467006902679431</v>
+        <v>0.1359316837037387</v>
       </c>
       <c r="Q2">
-        <v>0.01976893351555556</v>
+        <v>0.07827634091575</v>
       </c>
       <c r="R2">
-        <v>0.17792040164</v>
+        <v>0.313105363663</v>
       </c>
       <c r="S2">
-        <v>0.1217843147002015</v>
+        <v>0.1769072473669437</v>
       </c>
       <c r="T2">
-        <v>0.1467006902679431</v>
+        <v>0.1359316837037387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +596,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.07324666666666667</v>
+        <v>0.1314505</v>
       </c>
       <c r="H3">
-        <v>0.21974</v>
+        <v>0.262901</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3769893333333334</v>
+        <v>0.2698953333333333</v>
       </c>
       <c r="N3">
-        <v>1.130968</v>
+        <v>0.809686</v>
       </c>
       <c r="O3">
-        <v>0.1701081194782391</v>
+        <v>0.08018123232574602</v>
       </c>
       <c r="P3">
-        <v>0.2049112696415093</v>
+        <v>0.09241427420612175</v>
       </c>
       <c r="Q3">
-        <v>0.02761321203555556</v>
+        <v>0.03547787651433333</v>
       </c>
       <c r="R3">
-        <v>0.2485189083200001</v>
+        <v>0.212867259086</v>
       </c>
       <c r="S3">
-        <v>0.1701081194782391</v>
+        <v>0.08018123232574602</v>
       </c>
       <c r="T3">
-        <v>0.2049112696415093</v>
+        <v>0.09241427420612175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +658,55 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.1314505</v>
+      </c>
+      <c r="H4">
+        <v>0.262901</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.07324666666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.21974</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>1.1292185</v>
+        <v>0.1259886666666667</v>
       </c>
       <c r="N4">
-        <v>2.258437</v>
+        <v>0.377966</v>
       </c>
       <c r="O4">
-        <v>0.5095349351574172</v>
+        <v>0.03742905232056985</v>
       </c>
       <c r="P4">
-        <v>0.4091885827674711</v>
+        <v>0.04313950539417875</v>
       </c>
       <c r="Q4">
-        <v>0.08271149106333332</v>
+        <v>0.01656127322766666</v>
       </c>
       <c r="R4">
-        <v>0.49626894638</v>
+        <v>0.099367639366</v>
       </c>
       <c r="S4">
-        <v>0.5095349351574172</v>
+        <v>0.03742905232056985</v>
       </c>
       <c r="T4">
-        <v>0.4091885827674711</v>
+        <v>0.04313950539417875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +720,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.07324666666666667</v>
+        <v>0.1314505</v>
       </c>
       <c r="H5">
-        <v>0.21974</v>
+        <v>0.262901</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07958866666666665</v>
+        <v>0.741235</v>
       </c>
       <c r="N5">
-        <v>0.238766</v>
+        <v>1.48247</v>
       </c>
       <c r="O5">
-        <v>0.03591262993766511</v>
+        <v>0.2202080895914256</v>
       </c>
       <c r="P5">
-        <v>0.04326014901148803</v>
+        <v>0.169203109702217</v>
       </c>
       <c r="Q5">
-        <v>0.005829604537777777</v>
+        <v>0.0974357113675</v>
       </c>
       <c r="R5">
-        <v>0.05246644084</v>
+        <v>0.38974284547</v>
       </c>
       <c r="S5">
-        <v>0.03591262993766511</v>
+        <v>0.2202080895914256</v>
       </c>
       <c r="T5">
-        <v>0.04326014901148803</v>
+        <v>0.169203109702217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.07324666666666667</v>
+        <v>0.1314505</v>
       </c>
       <c r="H6">
-        <v>0.21974</v>
+        <v>0.262901</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +803,96 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3604830000000001</v>
+        <v>1.177331</v>
       </c>
       <c r="N6">
-        <v>1.081449</v>
+        <v>3.531993</v>
       </c>
       <c r="O6">
-        <v>0.162660000726477</v>
+        <v>0.3497646634694297</v>
       </c>
       <c r="P6">
-        <v>0.1959393083115885</v>
+        <v>0.4031273476336537</v>
       </c>
       <c r="Q6">
-        <v>0.02640417814000001</v>
+        <v>0.1547607486155</v>
       </c>
       <c r="R6">
-        <v>0.2376376032600001</v>
+        <v>0.9285644916929999</v>
       </c>
       <c r="S6">
-        <v>0.162660000726477</v>
+        <v>0.3497646634694297</v>
       </c>
       <c r="T6">
-        <v>0.1959393083115885</v>
+        <v>0.4031273476336537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.1314505</v>
+      </c>
+      <c r="H7">
+        <v>0.262901</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4561346666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.368404</v>
+      </c>
+      <c r="O7">
+        <v>0.135509714925885</v>
+      </c>
+      <c r="P7">
+        <v>0.15618407936009</v>
+      </c>
+      <c r="Q7">
+        <v>0.05995913000066666</v>
+      </c>
+      <c r="R7">
+        <v>0.359754780004</v>
+      </c>
+      <c r="S7">
+        <v>0.135509714925885</v>
+      </c>
+      <c r="T7">
+        <v>0.15618407936009</v>
       </c>
     </row>
   </sheetData>
